--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_捷豹.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_捷豹.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -311,6 +311,13 @@
   </si>
   <si>
     <t>DV-2326</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测</t>
+    <rPh sb="0" eb="1">
+      <t>zi'c</t>
+    </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -338,20 +345,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
@@ -388,24 +395,24 @@
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
@@ -1443,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1654,7 @@
         <v>72</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P3" s="82" t="s">
         <v>73</v>
